--- a/Cultured Meat (Myers et al.) Calculations.xlsx
+++ b/Cultured Meat (Myers et al.) Calculations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Review Chart" sheetId="1" r:id="rId1"/>
@@ -1009,7 +1009,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="488">
   <si>
     <t xml:space="preserve">Vergeer a </t>
   </si>
@@ -2744,9 +2744,6 @@
     </r>
   </si>
   <si>
-    <t>Average (kcal/m2/yr)</t>
-  </si>
-  <si>
     <r>
       <t>Minimum (MJ/m</t>
     </r>
@@ -2799,9 +2796,6 @@
     </r>
   </si>
   <si>
-    <t>Average (MJ/m2/yr)</t>
-  </si>
-  <si>
     <t>Protein Productivity</t>
   </si>
   <si>
@@ -2857,9 +2851,6 @@
     </r>
   </si>
   <si>
-    <t>Average (g/m2/yr)</t>
-  </si>
-  <si>
     <t>Broilers</t>
   </si>
   <si>
@@ -2909,6 +2900,18 @@
   </si>
   <si>
     <t>Beef Energy Content</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Median (kcal/m2/yr)</t>
+  </si>
+  <si>
+    <t>Median (MJ/m2/yr)</t>
+  </si>
+  <si>
+    <t>Median (g/m2/yr)</t>
   </si>
 </sst>
 </file>
@@ -3146,7 +3149,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3562,12 +3565,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3599,18 +3596,13 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -3686,15 +3678,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>295891</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>448291</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3717,7 +3709,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5791200" y="238124"/>
+          <a:off x="5943600" y="561974"/>
           <a:ext cx="4839316" cy="2857501"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5193,8 +5185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5951,8 +5943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6703,10 +6695,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6727,7 +6719,7 @@
       <c r="A2" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="B2" s="184">
+      <c r="B2" s="182">
         <v>0.2195</v>
       </c>
       <c r="I2" s="11" t="s">
@@ -6739,7 +6731,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B3" s="11">
         <v>1210</v>
@@ -6748,7 +6740,7 @@
         <v>450</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J3" s="24">
         <v>4.1840000000000002E-3</v>
@@ -6756,7 +6748,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B4" s="11">
         <v>5.0819999999999999</v>
@@ -6788,10 +6780,10 @@
       <c r="A7" s="151" t="s">
         <v>456</v>
       </c>
-      <c r="B7" s="185">
+      <c r="B7" s="183">
         <v>286</v>
       </c>
-      <c r="C7" s="185">
+      <c r="C7" s="183">
         <v>429</v>
       </c>
     </row>
@@ -6799,10 +6791,10 @@
       <c r="A8" s="151" t="s">
         <v>457</v>
       </c>
-      <c r="B8" s="185">
+      <c r="B8" s="183">
         <v>33</v>
       </c>
-      <c r="C8" s="185">
+      <c r="C8" s="183">
         <v>158</v>
       </c>
     </row>
@@ -6810,10 +6802,10 @@
       <c r="A9" s="151" t="s">
         <v>458</v>
       </c>
-      <c r="B9" s="185">
+      <c r="B9" s="183">
         <v>15</v>
       </c>
-      <c r="C9" s="185">
+      <c r="C9" s="183">
         <v>29</v>
       </c>
     </row>
@@ -6827,24 +6819,24 @@
       <c r="C10" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="D10" s="186" t="s">
-        <v>462</v>
+      <c r="D10" s="184" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="151" t="s">
         <v>456</v>
       </c>
-      <c r="B11" s="187">
+      <c r="B11" s="185">
         <f>(1/B7)*$B$3</f>
         <v>4.2307692307692308</v>
       </c>
-      <c r="C11" s="187">
+      <c r="C11" s="185">
         <f>(1/C7)*$B$3</f>
         <v>2.8205128205128207</v>
       </c>
-      <c r="D11" s="188">
-        <f>AVERAGE(B11:C11)</f>
+      <c r="D11" s="186">
+        <f>MEDIAN(B11:C11)</f>
         <v>3.5256410256410255</v>
       </c>
     </row>
@@ -6852,16 +6844,16 @@
       <c r="A12" s="151" t="s">
         <v>457</v>
       </c>
-      <c r="B12" s="187">
+      <c r="B12" s="185">
         <f t="shared" ref="B12:C13" si="0">(1/B8)*$B$3</f>
         <v>36.666666666666664</v>
       </c>
-      <c r="C12" s="187">
+      <c r="C12" s="185">
         <f t="shared" si="0"/>
         <v>7.6582278481012658</v>
       </c>
-      <c r="D12" s="180">
-        <f t="shared" ref="D12:D13" si="1">AVERAGE(B12:C12)</f>
+      <c r="D12" s="186">
+        <f t="shared" ref="D12:D13" si="1">MEDIAN(B12:C12)</f>
         <v>22.162447257383967</v>
       </c>
     </row>
@@ -6869,15 +6861,15 @@
       <c r="A13" s="151" t="s">
         <v>458</v>
       </c>
-      <c r="B13" s="187">
+      <c r="B13" s="185">
         <f t="shared" si="0"/>
         <v>80.666666666666671</v>
       </c>
-      <c r="C13" s="187">
+      <c r="C13" s="185">
         <f t="shared" si="0"/>
         <v>41.724137931034484</v>
       </c>
-      <c r="D13" s="189">
+      <c r="D13" s="186">
         <f t="shared" si="1"/>
         <v>61.195402298850581</v>
       </c>
@@ -6887,29 +6879,29 @@
         <v>459</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="D14" s="186" t="s">
-        <v>465</v>
+      <c r="D14" s="184" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="151" t="s">
         <v>456</v>
       </c>
-      <c r="B15" s="190">
+      <c r="B15" s="189">
         <f>(1/B7)*$B$4</f>
         <v>1.776923076923077E-2</v>
       </c>
-      <c r="C15" s="191">
+      <c r="C15" s="189">
         <f>(1/C7)*$B$4</f>
         <v>1.1846153846153847E-2</v>
       </c>
-      <c r="D15" s="192">
-        <f>AVERAGE(B15:C15)</f>
+      <c r="D15" s="186">
+        <f>MEDIAN(B15:C15)</f>
         <v>1.4807692307692308E-2</v>
       </c>
     </row>
@@ -6917,16 +6909,16 @@
       <c r="A16" s="151" t="s">
         <v>457</v>
       </c>
-      <c r="B16" s="190">
+      <c r="B16" s="188">
         <f t="shared" ref="B16:C17" si="2">(1/B8)*$B$4</f>
         <v>0.154</v>
       </c>
-      <c r="C16" s="191">
+      <c r="C16" s="189">
         <f t="shared" si="2"/>
         <v>3.2164556962025317E-2</v>
       </c>
-      <c r="D16" s="195">
-        <f t="shared" ref="D16:D17" si="3">AVERAGE(B16:C16)</f>
+      <c r="D16" s="186">
+        <f t="shared" ref="D16:D17" si="3">MEDIAN(B16:C16)</f>
         <v>9.3082278481012665E-2</v>
       </c>
     </row>
@@ -6934,45 +6926,45 @@
       <c r="A17" s="151" t="s">
         <v>458</v>
       </c>
-      <c r="B17" s="190">
+      <c r="B17" s="188">
         <f t="shared" si="2"/>
         <v>0.33879999999999999</v>
       </c>
-      <c r="C17" s="191">
+      <c r="C17" s="189">
         <f t="shared" si="2"/>
         <v>0.17524137931034481</v>
       </c>
-      <c r="D17" s="188">
+      <c r="D17" s="186">
         <f t="shared" si="3"/>
         <v>0.25702068965517239</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="D18" s="186" t="s">
-        <v>469</v>
+      <c r="D18" s="184" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="151" t="s">
         <v>456</v>
       </c>
-      <c r="B19" s="187">
+      <c r="B19" s="185">
         <v>0.76748251748251739</v>
       </c>
-      <c r="C19" s="187">
+      <c r="C19" s="185">
         <v>0.5116550116550117</v>
       </c>
-      <c r="D19" s="188">
-        <f>AVERAGE(B19:C19)</f>
+      <c r="D19" s="186">
+        <f>MEDIAN(B19:C19)</f>
         <v>0.63956876456876455</v>
       </c>
     </row>
@@ -6980,14 +6972,14 @@
       <c r="A20" s="151" t="s">
         <v>457</v>
       </c>
-      <c r="B20" s="187">
+      <c r="B20" s="185">
         <v>6.6515151515151514</v>
       </c>
-      <c r="C20" s="187">
+      <c r="C20" s="185">
         <v>1.389240506329114</v>
       </c>
-      <c r="D20" s="179">
-        <f t="shared" ref="D20:D21" si="4">AVERAGE(B20:C20)</f>
+      <c r="D20" s="186">
+        <f t="shared" ref="D20:D21" si="4">MEDIAN(B20:C20)</f>
         <v>4.0203778289221326</v>
       </c>
     </row>
@@ -6995,318 +6987,385 @@
       <c r="A21" s="151" t="s">
         <v>458</v>
       </c>
-      <c r="B21" s="187">
+      <c r="B21" s="185">
         <v>14.633333333333333</v>
       </c>
-      <c r="C21" s="187">
+      <c r="C21" s="185">
         <v>7.5689655172413799</v>
       </c>
-      <c r="D21" s="189">
+      <c r="D21" s="186">
         <f t="shared" si="4"/>
         <v>11.101149425287357</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="181" t="s">
-        <v>470</v>
-      </c>
-      <c r="B22" s="182"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="183"/>
+      <c r="A22" s="179" t="s">
+        <v>467</v>
+      </c>
+      <c r="B22" s="180"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="181"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="193" t="s">
+      <c r="A23" s="190" t="s">
         <v>453</v>
       </c>
-      <c r="B23" s="187"/>
-      <c r="C23" s="187"/>
-      <c r="D23" s="189"/>
+      <c r="B23" s="185"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="187"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="151" t="s">
-        <v>471</v>
-      </c>
-      <c r="B24" s="187">
+        <v>468</v>
+      </c>
+      <c r="B24" s="185">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C24" s="187" t="s">
-        <v>472</v>
-      </c>
-      <c r="D24" s="189"/>
+      <c r="C24" s="185" t="s">
+        <v>469</v>
+      </c>
+      <c r="D24" s="187"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="151" t="s">
+        <v>470</v>
+      </c>
+      <c r="B25" s="185">
+        <v>8.1</v>
+      </c>
+      <c r="C25" s="185" t="s">
+        <v>469</v>
+      </c>
+      <c r="D25" s="187"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="151" t="s">
+        <v>481</v>
+      </c>
+      <c r="B26" s="185">
+        <f>MEDIAN(B24:B25)</f>
+        <v>8.6499999999999986</v>
+      </c>
+      <c r="C26" s="185"/>
+      <c r="D26" s="187"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="190" t="s">
+        <v>471</v>
+      </c>
+      <c r="B27" s="188">
+        <v>0.17</v>
+      </c>
+      <c r="C27" s="185" t="s">
+        <v>472</v>
+      </c>
+      <c r="D27" s="187"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="190" t="s">
         <v>473</v>
       </c>
-      <c r="B25" s="187">
-        <v>8.1</v>
-      </c>
-      <c r="C25" s="187" t="s">
-        <v>472</v>
-      </c>
-      <c r="D25" s="189"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="193" t="s">
-        <v>474</v>
-      </c>
-      <c r="B26" s="190">
-        <v>0.17</v>
-      </c>
-      <c r="C26" s="187" t="s">
-        <v>475</v>
-      </c>
-      <c r="D26" s="189"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="193" t="s">
-        <v>476</v>
-      </c>
-      <c r="B27" s="187">
+      <c r="B28" s="185">
         <v>1430</v>
       </c>
-      <c r="C27" s="187" t="s">
+      <c r="C28" s="185" t="s">
         <v>450</v>
       </c>
-      <c r="D27" s="189"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="193" t="s">
-        <v>476</v>
-      </c>
-      <c r="B28" s="187">
-        <f>B27*J3</f>
+      <c r="D28" s="187"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="190" t="s">
+        <v>473</v>
+      </c>
+      <c r="B29" s="185">
+        <f>B28*J3</f>
         <v>5.9831200000000004</v>
       </c>
-      <c r="C28" s="187" t="s">
+      <c r="C29" s="185" t="s">
         <v>451</v>
       </c>
-      <c r="D28" s="189"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="D29" s="187"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="B29" s="187"/>
-      <c r="C29" s="187"/>
-      <c r="D29" s="189"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="151" t="s">
-        <v>477</v>
-      </c>
-      <c r="B30" s="190">
-        <f>(1/B25)*B28</f>
-        <v>0.73865679012345686</v>
-      </c>
-      <c r="C30" s="187" t="s">
-        <v>478</v>
-      </c>
-      <c r="D30" s="189"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="187"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="151" t="s">
-        <v>479</v>
-      </c>
-      <c r="B31" s="190">
-        <f>(1/B24)*B28</f>
+        <v>474</v>
+      </c>
+      <c r="B31" s="188">
+        <f>(1/B25)*B29</f>
+        <v>0.73865679012345686</v>
+      </c>
+      <c r="C31" s="185" t="s">
+        <v>475</v>
+      </c>
+      <c r="D31" s="187"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="151" t="s">
+        <v>476</v>
+      </c>
+      <c r="B32" s="188">
+        <f>(1/B24)*$B$29</f>
         <v>0.65033913043478275</v>
       </c>
-      <c r="C31" s="187" t="s">
-        <v>478</v>
-      </c>
-      <c r="D31" s="189"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="194" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" s="189">
-        <f>AVERAGE(B30,B31)</f>
-        <v>0.69449796027911981</v>
-      </c>
-      <c r="C32" s="189" t="s">
-        <v>478</v>
-      </c>
-      <c r="D32" s="189"/>
+      <c r="C32" s="185" t="s">
+        <v>475</v>
+      </c>
+      <c r="D32" s="187"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="193" t="s">
-        <v>466</v>
-      </c>
-      <c r="B33" s="187"/>
-      <c r="C33" s="187"/>
-      <c r="D33" s="189"/>
+      <c r="A33" s="191" t="s">
+        <v>481</v>
+      </c>
+      <c r="B33" s="188">
+        <f>(1/B26)*$B$29</f>
+        <v>0.69169017341040484</v>
+      </c>
+      <c r="C33" s="187" t="s">
+        <v>475</v>
+      </c>
+      <c r="D33" s="187"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="151" t="s">
-        <v>477</v>
-      </c>
-      <c r="B34" s="187">
-        <f>(1/B25)*B26*J2</f>
-        <v>20.987654320987659</v>
-      </c>
-      <c r="C34" s="187" t="s">
-        <v>480</v>
-      </c>
-      <c r="D34" s="189"/>
+      <c r="A34" s="190" t="s">
+        <v>464</v>
+      </c>
+      <c r="B34" s="185"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="187"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="151" t="s">
-        <v>479</v>
-      </c>
-      <c r="B35" s="187">
+        <v>474</v>
+      </c>
+      <c r="B35" s="185">
+        <f>(1/B25)*$B$27*$J$2</f>
+        <v>20.987654320987659</v>
+      </c>
+      <c r="C35" s="185" t="s">
+        <v>477</v>
+      </c>
+      <c r="D35" s="187"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="151" t="s">
+        <v>476</v>
+      </c>
+      <c r="B36" s="185">
+        <f>(1/B24)*$B$27*$J$2</f>
         <v>18.478260869565222</v>
       </c>
-      <c r="C35" s="187" t="s">
-        <v>480</v>
-      </c>
-      <c r="D35" s="189"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="194" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" s="189">
-        <f>AVERAGE(B34,B35)</f>
-        <v>19.732957595276439</v>
-      </c>
-      <c r="C36" s="189" t="s">
-        <v>480</v>
-      </c>
-      <c r="D36" s="189"/>
+      <c r="C36" s="185" t="s">
+        <v>477</v>
+      </c>
+      <c r="D36" s="187"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="181" t="s">
+      <c r="A37" s="191" t="s">
         <v>481</v>
       </c>
-      <c r="B37" s="182"/>
-      <c r="C37" s="182"/>
-      <c r="D37" s="183"/>
+      <c r="B37" s="185">
+        <f>(1/B26)*$B$27*$J$2</f>
+        <v>19.653179190751448</v>
+      </c>
+      <c r="C37" s="187" t="s">
+        <v>477</v>
+      </c>
+      <c r="D37" s="187"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="193" t="s">
+      <c r="A38" s="179" t="s">
+        <v>478</v>
+      </c>
+      <c r="B38" s="180"/>
+      <c r="C38" s="180"/>
+      <c r="D38" s="181"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="190" t="s">
         <v>453</v>
       </c>
-      <c r="B38" s="187"/>
-      <c r="C38" s="187"/>
-      <c r="D38" s="189"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="151" t="s">
-        <v>471</v>
-      </c>
-      <c r="B39" s="187">
-        <v>15</v>
-      </c>
-      <c r="C39" s="187" t="s">
-        <v>472</v>
-      </c>
-      <c r="D39" s="189"/>
+      <c r="B39" s="185"/>
+      <c r="C39" s="185"/>
+      <c r="D39" s="187"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="151" t="s">
-        <v>473</v>
-      </c>
-      <c r="B40" s="187">
-        <v>8</v>
-      </c>
-      <c r="C40" s="187" t="s">
-        <v>472</v>
-      </c>
-      <c r="D40" s="189"/>
+        <v>468</v>
+      </c>
+      <c r="B40" s="185">
+        <v>15</v>
+      </c>
+      <c r="C40" s="185" t="s">
+        <v>469</v>
+      </c>
+      <c r="D40" s="187"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="151" t="s">
-        <v>484</v>
-      </c>
-      <c r="B41" s="187">
-        <f>MEDIAN(B39:B40)</f>
+        <v>470</v>
+      </c>
+      <c r="B41" s="185">
+        <v>8</v>
+      </c>
+      <c r="C41" s="185" t="s">
+        <v>469</v>
+      </c>
+      <c r="D41" s="187"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="151" t="s">
+        <v>481</v>
+      </c>
+      <c r="B42" s="185">
+        <f>MEDIAN(B40:B41)</f>
         <v>11.5</v>
       </c>
-      <c r="C41" s="187" t="s">
+      <c r="C42" s="185" t="s">
+        <v>469</v>
+      </c>
+      <c r="D42" s="187"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="190" t="s">
+        <v>479</v>
+      </c>
+      <c r="B43" s="188">
+        <v>0.17</v>
+      </c>
+      <c r="C43" s="185" t="s">
         <v>472</v>
       </c>
-      <c r="D41" s="189"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="193" t="s">
-        <v>482</v>
-      </c>
-      <c r="B42" s="190">
-        <v>0.17</v>
-      </c>
-      <c r="C42" s="187" t="s">
+      <c r="D43" s="187"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="190" t="s">
+        <v>480</v>
+      </c>
+      <c r="B44" s="185">
+        <v>2630</v>
+      </c>
+      <c r="C44" s="185" t="s">
+        <v>450</v>
+      </c>
+      <c r="D44" s="187"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="190" t="s">
+        <v>480</v>
+      </c>
+      <c r="B45" s="185">
+        <f>B44*J3</f>
+        <v>11.003920000000001</v>
+      </c>
+      <c r="C45" s="185" t="s">
+        <v>451</v>
+      </c>
+      <c r="D45" s="187"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B46" s="185"/>
+      <c r="C46" s="185"/>
+      <c r="D46" s="187"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="151" t="s">
+        <v>476</v>
+      </c>
+      <c r="B47" s="186">
+        <f t="shared" ref="B47:B48" si="5">(1/B40)*$B$45</f>
+        <v>0.73359466666666673</v>
+      </c>
+      <c r="C47" s="185" t="s">
         <v>475</v>
       </c>
-      <c r="D42" s="189"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="193" t="s">
-        <v>483</v>
-      </c>
-      <c r="B43" s="187">
-        <v>2630</v>
-      </c>
-      <c r="C43" s="187" t="s">
-        <v>450</v>
-      </c>
-      <c r="D43" s="189"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="193" t="s">
-        <v>483</v>
-      </c>
-      <c r="B44" s="187">
-        <f>B43*J3</f>
-        <v>11.003920000000001</v>
-      </c>
-      <c r="C44" s="187" t="s">
-        <v>451</v>
-      </c>
-      <c r="D44" s="189"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B45" s="187"/>
-      <c r="C45" s="187"/>
-      <c r="D45" s="189"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="151" t="s">
-        <v>484</v>
-      </c>
-      <c r="B46" s="188">
-        <f>(1/B41)*B44</f>
-        <v>0.95686260869565221</v>
-      </c>
-      <c r="C46" s="187" t="s">
-        <v>478</v>
-      </c>
-      <c r="D46" s="189"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="193" t="s">
-        <v>466</v>
-      </c>
-      <c r="B47" s="187"/>
-      <c r="C47" s="187"/>
-      <c r="D47" s="189"/>
+      <c r="D47" s="187"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="151" t="s">
         <v>484</v>
       </c>
-      <c r="B48" s="189">
-        <f>(1/B41)*B42*J2</f>
+      <c r="B48" s="186">
+        <f t="shared" si="5"/>
+        <v>1.3754900000000001</v>
+      </c>
+      <c r="C48" s="185" t="s">
+        <v>475</v>
+      </c>
+      <c r="D48" s="187"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="151" t="s">
+        <v>481</v>
+      </c>
+      <c r="B49" s="186">
+        <f>(1/B42)*$B$45</f>
+        <v>0.95686260869565221</v>
+      </c>
+      <c r="C49" s="185" t="s">
+        <v>475</v>
+      </c>
+      <c r="D49" s="187"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="190" t="s">
+        <v>464</v>
+      </c>
+      <c r="B50" s="185"/>
+      <c r="C50" s="185"/>
+      <c r="D50" s="187"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="151" t="s">
+        <v>476</v>
+      </c>
+      <c r="B51" s="187">
+        <f>(1/B40)*$B$43*$J$2</f>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="C51" s="185" t="s">
+        <v>477</v>
+      </c>
+      <c r="D51" s="187"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="151" t="s">
+        <v>484</v>
+      </c>
+      <c r="B52" s="187">
+        <f>(1/B41)*$B$43*$J$2</f>
+        <v>21.25</v>
+      </c>
+      <c r="C52" s="185" t="s">
+        <v>477</v>
+      </c>
+      <c r="D52" s="187"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="151" t="s">
+        <v>481</v>
+      </c>
+      <c r="B53" s="187">
+        <f>(1/B42)*$B$43*$J$2</f>
         <v>14.782608695652174</v>
       </c>
-      <c r="C48" s="187" t="s">
-        <v>480</v>
-      </c>
-      <c r="D48" s="189"/>
+      <c r="C53" s="185" t="s">
+        <v>477</v>
+      </c>
+      <c r="D53" s="187"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="192"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7318,7 +7377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -7503,7 +7562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>

--- a/Cultured Meat (Myers et al.) Calculations.xlsx
+++ b/Cultured Meat (Myers et al.) Calculations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11970" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Review Chart" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Corn Land Partition" sheetId="11" r:id="rId9"/>
     <sheet name="Growth Parameters" sheetId="15" r:id="rId10"/>
     <sheet name="Animal Areal Productivity" sheetId="17" r:id="rId11"/>
-    <sheet name="Humbird Density Calc" sheetId="14" r:id="rId12"/>
+    <sheet name="Table 1" sheetId="14" r:id="rId12"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId13"/>
@@ -1009,7 +1009,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="506">
   <si>
     <t xml:space="preserve">Vergeer a </t>
   </si>
@@ -2912,6 +2912,60 @@
   </si>
   <si>
     <t>Median (g/m2/yr)</t>
+  </si>
+  <si>
+    <t>Humbird Densities</t>
+  </si>
+  <si>
+    <t>Risner</t>
+  </si>
+  <si>
+    <t>Bioreactor volume</t>
+  </si>
+  <si>
+    <t>Seed reactor volume</t>
+  </si>
+  <si>
+    <t>Seed concentrations</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>cells/ml</t>
+  </si>
+  <si>
+    <t>Initial cell concentation</t>
+  </si>
+  <si>
+    <t>Maturation time Calcs</t>
+  </si>
+  <si>
+    <t>1 - Doubling Time</t>
+  </si>
+  <si>
+    <t>2 - Doubling Time</t>
+  </si>
+  <si>
+    <t>3 - Doubling Time</t>
+  </si>
+  <si>
+    <t>4 - Doubling Time</t>
+  </si>
+  <si>
+    <t>1- Growth phase time</t>
+  </si>
+  <si>
+    <t>2- Growth phase time</t>
+  </si>
+  <si>
+    <t>3- Growth phase time</t>
+  </si>
+  <si>
+    <t>4- Growth phase time</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -3062,7 +3116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3123,6 +3177,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3149,7 +3209,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3603,6 +3663,17 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -3770,16 +3841,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600166</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>518475</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>208824</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>18301</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>147560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3796,8 +3867,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5429341" y="790574"/>
-          <a:ext cx="3875858" cy="3990227"/>
+          <a:off x="3518850" y="752475"/>
+          <a:ext cx="2558100" cy="2633585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>18613</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295649" y="4018425"/>
+          <a:ext cx="5209739" cy="2229975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>149308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3267074" y="6680247"/>
+          <a:ext cx="4114801" cy="1089061"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3986,37 +4133,37 @@
       <sheetName val="Equip"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
       <sheetData sheetId="31">
         <row r="4">
           <cell r="C4">
@@ -4913,8 +5060,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5185,7 +5332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -7375,10 +7522,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7387,174 +7534,689 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="194" t="s">
         <v>332</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="194">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="194" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="194" t="s">
         <v>333</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="194">
         <v>482</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="194" t="s">
         <v>330</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="194"/>
+      <c r="E2" s="194" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="194" t="s">
         <v>334</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="194">
         <v>1849</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="194" t="s">
         <v>330</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="194"/>
+      <c r="E3" s="194" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="193" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="194" t="s">
         <v>336</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="194">
         <f>B2/B1</f>
         <v>24.1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="194" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="194" t="s">
         <v>337</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="194">
         <f>B3/B1</f>
         <v>92.45</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="194" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="194"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="194" t="s">
         <v>327</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="194">
         <v>3000</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="194" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="194"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="194"/>
+      <c r="B9" s="194">
         <f>0.000000000001</f>
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="194" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="194"/>
+      <c r="B10" s="194">
         <f>B8*B9</f>
         <v>3E-9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="194" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="194"/>
+      <c r="B11" s="194">
         <v>1000</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="194" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="D11" s="194"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="194"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="194"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="194"/>
+      <c r="B12" s="194">
         <f>B10/B11</f>
         <v>3.0000000000000001E-12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="194" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D12" s="194"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="194"/>
+      <c r="B13" s="194"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="194" t="s">
         <v>336</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="194">
         <f>B5/B12</f>
         <v>8033333333333.333</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="194" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="42">
+      <c r="D14" s="194"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="194"/>
+      <c r="B15" s="195">
         <v>1000000</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="194" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D15" s="194"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="194"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="194" t="s">
         <v>336</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="196">
         <f>B14/B15</f>
         <v>8033333.333333333</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="194" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D16" s="194"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="194"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="194" t="s">
         <v>337</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="194">
         <f>B6/B12</f>
         <v>30816666666666.668</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="194" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="194" t="s">
         <v>337</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="196">
         <f>B18/B15</f>
         <v>30816666.666666668</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="194" t="s">
         <v>340</v>
       </c>
+      <c r="D19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="200" t="s">
+        <v>489</v>
+      </c>
+      <c r="B21" s="197"/>
+      <c r="C21" s="197"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="197"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="197"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="198" t="s">
+        <v>490</v>
+      </c>
+      <c r="B22" s="197">
+        <v>20</v>
+      </c>
+      <c r="C22" s="197" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="197"/>
+      <c r="E22" s="197"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="197"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="197"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="198" t="s">
+        <v>492</v>
+      </c>
+      <c r="B23" s="197"/>
+      <c r="C23" s="197"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="197"/>
+      <c r="G23" s="197"/>
+      <c r="H23" s="197"/>
+      <c r="I23" s="197"/>
+      <c r="J23" s="197"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="198">
+        <v>1</v>
+      </c>
+      <c r="B24" s="199">
+        <v>10000000</v>
+      </c>
+      <c r="C24" s="197" t="s">
+        <v>494</v>
+      </c>
+      <c r="D24" s="197"/>
+      <c r="E24" s="197"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="197"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="197"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="198">
+        <v>2</v>
+      </c>
+      <c r="B25" s="199">
+        <v>95000000</v>
+      </c>
+      <c r="C25" s="197" t="s">
+        <v>494</v>
+      </c>
+      <c r="D25" s="197"/>
+      <c r="E25" s="197"/>
+      <c r="F25" s="197"/>
+      <c r="G25" s="197"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="197"/>
+      <c r="J25" s="197"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="198">
+        <v>3</v>
+      </c>
+      <c r="B26" s="199">
+        <v>95000000</v>
+      </c>
+      <c r="C26" s="197" t="s">
+        <v>494</v>
+      </c>
+      <c r="D26" s="197"/>
+      <c r="E26" s="197"/>
+      <c r="F26" s="197"/>
+      <c r="G26" s="197"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="197"/>
+      <c r="J26" s="197"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="198">
+        <v>4</v>
+      </c>
+      <c r="B27" s="199">
+        <v>200000000</v>
+      </c>
+      <c r="C27" s="197" t="s">
+        <v>494</v>
+      </c>
+      <c r="D27" s="197"/>
+      <c r="E27" s="197"/>
+      <c r="F27" s="197"/>
+      <c r="G27" s="197"/>
+      <c r="H27" s="197"/>
+      <c r="I27" s="197"/>
+      <c r="J27" s="197"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="198" t="s">
+        <v>491</v>
+      </c>
+      <c r="B28" s="199">
+        <v>200</v>
+      </c>
+      <c r="C28" s="197" t="s">
+        <v>493</v>
+      </c>
+      <c r="D28" s="197"/>
+      <c r="E28" s="197"/>
+      <c r="F28" s="197"/>
+      <c r="G28" s="197"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="197"/>
+      <c r="J28" s="197"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="198" t="s">
+        <v>495</v>
+      </c>
+      <c r="B29" s="197"/>
+      <c r="C29" s="197"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="197"/>
+      <c r="F29" s="197"/>
+      <c r="G29" s="197"/>
+      <c r="H29" s="197"/>
+      <c r="I29" s="197"/>
+      <c r="J29" s="197"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="198">
+        <v>1</v>
+      </c>
+      <c r="B30" s="199">
+        <f>(B24*$B$28*1000)/($B$22*1000000)</f>
+        <v>100000</v>
+      </c>
+      <c r="C30" s="197" t="s">
+        <v>494</v>
+      </c>
+      <c r="D30" s="197"/>
+      <c r="E30" s="197"/>
+      <c r="F30" s="197"/>
+      <c r="G30" s="197"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="197"/>
+      <c r="J30" s="197"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="198">
+        <v>2</v>
+      </c>
+      <c r="B31" s="199">
+        <f t="shared" ref="B31:B33" si="0">(B25*$B$28*1000)/($B$22*1000000)</f>
+        <v>950000</v>
+      </c>
+      <c r="C31" s="197"/>
+      <c r="D31" s="197"/>
+      <c r="E31" s="197"/>
+      <c r="F31" s="197"/>
+      <c r="G31" s="197"/>
+      <c r="H31" s="197"/>
+      <c r="I31" s="197"/>
+      <c r="J31" s="197"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="198">
+        <v>3</v>
+      </c>
+      <c r="B32" s="199">
+        <f t="shared" si="0"/>
+        <v>950000</v>
+      </c>
+      <c r="C32" s="197"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="197"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="197"/>
+      <c r="J32" s="197"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="198">
+        <v>4</v>
+      </c>
+      <c r="B33" s="199">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="C33" s="197"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="197"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="197"/>
+      <c r="J33" s="197"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="197" t="s">
+        <v>496</v>
+      </c>
+      <c r="B34" s="197"/>
+      <c r="C34" s="197"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="197"/>
+      <c r="F34" s="197"/>
+      <c r="G34" s="197"/>
+      <c r="H34" s="197"/>
+      <c r="I34" s="197"/>
+      <c r="J34" s="197"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="198" t="s">
+        <v>497</v>
+      </c>
+      <c r="B35" s="197">
+        <v>24</v>
+      </c>
+      <c r="C35" s="197" t="s">
+        <v>505</v>
+      </c>
+      <c r="D35" s="197"/>
+      <c r="E35" s="197"/>
+      <c r="F35" s="197"/>
+      <c r="G35" s="197"/>
+      <c r="H35" s="197"/>
+      <c r="I35" s="197"/>
+      <c r="J35" s="197"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="198" t="s">
+        <v>498</v>
+      </c>
+      <c r="B36" s="197">
+        <v>16</v>
+      </c>
+      <c r="C36" s="197" t="s">
+        <v>505</v>
+      </c>
+      <c r="D36" s="197"/>
+      <c r="E36" s="197"/>
+      <c r="F36" s="197"/>
+      <c r="G36" s="197"/>
+      <c r="H36" s="197"/>
+      <c r="I36" s="197"/>
+      <c r="J36" s="197"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="198" t="s">
+        <v>499</v>
+      </c>
+      <c r="B37" s="197">
+        <v>16</v>
+      </c>
+      <c r="C37" s="197" t="s">
+        <v>505</v>
+      </c>
+      <c r="D37" s="197"/>
+      <c r="E37" s="197"/>
+      <c r="F37" s="197"/>
+      <c r="G37" s="197"/>
+      <c r="H37" s="197"/>
+      <c r="I37" s="197"/>
+      <c r="J37" s="197"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="198" t="s">
+        <v>500</v>
+      </c>
+      <c r="B38" s="197">
+        <v>8</v>
+      </c>
+      <c r="C38" s="197" t="s">
+        <v>505</v>
+      </c>
+      <c r="D38" s="197"/>
+      <c r="E38" s="197"/>
+      <c r="F38" s="197"/>
+      <c r="G38" s="197"/>
+      <c r="H38" s="197"/>
+      <c r="I38" s="197"/>
+      <c r="J38" s="197"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="B39" s="201">
+        <f>(B35*LN(B24/B30))/LN(2)</f>
+        <v>159.45254855459342</v>
+      </c>
+      <c r="C39" s="197" t="s">
+        <v>505</v>
+      </c>
+      <c r="D39" s="197"/>
+      <c r="E39" s="197"/>
+      <c r="F39" s="197"/>
+      <c r="G39" s="197"/>
+      <c r="H39" s="197"/>
+      <c r="I39" s="197"/>
+      <c r="J39" s="197"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="198" t="s">
+        <v>502</v>
+      </c>
+      <c r="B40" s="201">
+        <f t="shared" ref="B40:B42" si="1">(B36*LN(B25/B31))/LN(2)</f>
+        <v>106.3016990363956</v>
+      </c>
+      <c r="C40" s="197" t="s">
+        <v>505</v>
+      </c>
+      <c r="D40" s="197"/>
+      <c r="E40" s="197"/>
+      <c r="F40" s="197"/>
+      <c r="G40" s="197"/>
+      <c r="H40" s="197"/>
+      <c r="I40" s="197"/>
+      <c r="J40" s="197"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="198" t="s">
+        <v>503</v>
+      </c>
+      <c r="B41" s="201">
+        <f t="shared" si="1"/>
+        <v>106.3016990363956</v>
+      </c>
+      <c r="C41" s="197" t="s">
+        <v>505</v>
+      </c>
+      <c r="D41" s="197"/>
+      <c r="E41" s="197"/>
+      <c r="F41" s="197"/>
+      <c r="G41" s="197"/>
+      <c r="H41" s="197"/>
+      <c r="I41" s="197"/>
+      <c r="J41" s="197"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="198" t="s">
+        <v>504</v>
+      </c>
+      <c r="B42" s="201">
+        <f t="shared" si="1"/>
+        <v>53.150849518197802</v>
+      </c>
+      <c r="C42" s="197" t="s">
+        <v>505</v>
+      </c>
+      <c r="D42" s="197"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="197"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
+      <c r="J42" s="197"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="197"/>
+      <c r="B43" s="197"/>
+      <c r="C43" s="197"/>
+      <c r="D43" s="197"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="197"/>
+      <c r="G43" s="197"/>
+      <c r="H43" s="197"/>
+      <c r="I43" s="197"/>
+      <c r="J43" s="197"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Cultured Meat (Myers et al.) Calculations.xlsx
+++ b/Cultured Meat (Myers et al.) Calculations.xlsx
@@ -1009,7 +1009,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="512">
   <si>
     <t xml:space="preserve">Vergeer a </t>
   </si>
@@ -2966,6 +2966,24 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Cells at end of batch</t>
+  </si>
+  <si>
+    <t>kg/cell</t>
+  </si>
+  <si>
+    <t>g/cell</t>
   </si>
 </sst>
 </file>
@@ -3209,7 +3227,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3597,9 +3615,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="167" fontId="7" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3945,6 +3960,44 @@
         <a:xfrm>
           <a:off x="3267074" y="6680247"/>
           <a:ext cx="4114801" cy="1089061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>80879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>189465</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="8462879"/>
+          <a:ext cx="4218540" cy="252433"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6090,8 +6143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6436,7 +6489,7 @@
         <v>3.1333237907788831</v>
       </c>
       <c r="C13" s="115">
-        <f t="shared" ref="C13" si="2">C14/(C4-C3)</f>
+        <f>C14/(C4-C3)</f>
         <v>14.860201851584044</v>
       </c>
       <c r="D13" s="115">
@@ -6491,11 +6544,11 @@
       <c r="A16" s="100" t="s">
         <v>379</v>
       </c>
-      <c r="B16" s="169">
+      <c r="B16" s="103">
         <f>B14*B15</f>
         <v>67.429219600725958</v>
       </c>
-      <c r="C16" s="169">
+      <c r="C16" s="103">
         <f>C14*C15</f>
         <v>1006.9328493647911</v>
       </c>
@@ -6508,15 +6561,15 @@
         <v>258.75</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="116" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="170">
+      <c r="B17" s="169">
         <f>(B6*B7)/B16</f>
         <v>0.16559696394686907</v>
       </c>
-      <c r="C17" s="170">
+      <c r="C17" s="169">
         <f>(C6*C7)/C16</f>
         <v>5.1739285714285724E-2</v>
       </c>
@@ -6529,14 +6582,14 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D20">
         <f>B16/B9</f>
         <v>0.37460677555958866</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="65" t="s">
         <v>403</v>
       </c>
@@ -6544,7 +6597,7 @@
       <c r="C21" s="66"/>
       <c r="D21" s="66"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="s">
         <v>341</v>
       </c>
@@ -6557,7 +6610,7 @@
       </c>
       <c r="D22" s="66"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="65" t="s">
         <v>401</v>
       </c>
@@ -6569,23 +6622,31 @@
       </c>
       <c r="D23" s="66"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="67" t="s">
         <v>343</v>
       </c>
       <c r="B24" s="68"/>
       <c r="C24" s="68"/>
       <c r="D24" s="68"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f>639*32</f>
+        <v>20448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="69" t="s">
         <v>344</v>
       </c>
       <c r="B25" s="70"/>
       <c r="C25" s="70"/>
       <c r="D25" s="71"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f>G24/2.204</f>
+        <v>9277.6769509981841</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="72" t="s">
         <v>345</v>
       </c>
@@ -6597,7 +6658,7 @@
       </c>
       <c r="D26" s="71"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="72" t="s">
         <v>347</v>
       </c>
@@ -6609,7 +6670,7 @@
       </c>
       <c r="D27" s="71"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="72" t="s">
         <v>348</v>
       </c>
@@ -6621,7 +6682,7 @@
       </c>
       <c r="D28" s="71"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="74" t="s">
         <v>350</v>
       </c>
@@ -6634,7 +6695,7 @@
       </c>
       <c r="D29" s="71"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="74" t="s">
         <v>350</v>
       </c>
@@ -6647,7 +6708,7 @@
       </c>
       <c r="D30" s="77"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="74" t="s">
         <v>341</v>
       </c>
@@ -6660,7 +6721,7 @@
       </c>
       <c r="D31" s="77"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="78" t="s">
         <v>341</v>
       </c>
@@ -6754,7 +6815,7 @@
       <c r="A40" s="91" t="s">
         <v>359</v>
       </c>
-      <c r="B40" s="172">
+      <c r="B40" s="171">
         <f>B39/B6</f>
         <v>3.0354259821438946E-2</v>
       </c>
@@ -6819,7 +6880,7 @@
       <c r="A46" s="94" t="s">
         <v>359</v>
       </c>
-      <c r="B46" s="171">
+      <c r="B46" s="170">
         <f>B45/D6</f>
         <v>1.2439759615133864E-2</v>
       </c>
@@ -6866,7 +6927,7 @@
       <c r="A2" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="B2" s="182">
+      <c r="B2" s="181">
         <v>0.2195</v>
       </c>
       <c r="I2" s="11" t="s">
@@ -6927,10 +6988,10 @@
       <c r="A7" s="151" t="s">
         <v>456</v>
       </c>
-      <c r="B7" s="183">
+      <c r="B7" s="182">
         <v>286</v>
       </c>
-      <c r="C7" s="183">
+      <c r="C7" s="182">
         <v>429</v>
       </c>
     </row>
@@ -6938,10 +6999,10 @@
       <c r="A8" s="151" t="s">
         <v>457</v>
       </c>
-      <c r="B8" s="183">
+      <c r="B8" s="182">
         <v>33</v>
       </c>
-      <c r="C8" s="183">
+      <c r="C8" s="182">
         <v>158</v>
       </c>
     </row>
@@ -6949,10 +7010,10 @@
       <c r="A9" s="151" t="s">
         <v>458</v>
       </c>
-      <c r="B9" s="183">
+      <c r="B9" s="182">
         <v>15</v>
       </c>
-      <c r="C9" s="183">
+      <c r="C9" s="182">
         <v>29</v>
       </c>
     </row>
@@ -6966,7 +7027,7 @@
       <c r="C10" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="D10" s="184" t="s">
+      <c r="D10" s="183" t="s">
         <v>485</v>
       </c>
     </row>
@@ -6974,15 +7035,15 @@
       <c r="A11" s="151" t="s">
         <v>456</v>
       </c>
-      <c r="B11" s="185">
+      <c r="B11" s="184">
         <f>(1/B7)*$B$3</f>
         <v>4.2307692307692308</v>
       </c>
-      <c r="C11" s="185">
+      <c r="C11" s="184">
         <f>(1/C7)*$B$3</f>
         <v>2.8205128205128207</v>
       </c>
-      <c r="D11" s="186">
+      <c r="D11" s="185">
         <f>MEDIAN(B11:C11)</f>
         <v>3.5256410256410255</v>
       </c>
@@ -6991,15 +7052,15 @@
       <c r="A12" s="151" t="s">
         <v>457</v>
       </c>
-      <c r="B12" s="185">
+      <c r="B12" s="184">
         <f t="shared" ref="B12:C13" si="0">(1/B8)*$B$3</f>
         <v>36.666666666666664</v>
       </c>
-      <c r="C12" s="185">
+      <c r="C12" s="184">
         <f t="shared" si="0"/>
         <v>7.6582278481012658</v>
       </c>
-      <c r="D12" s="186">
+      <c r="D12" s="185">
         <f t="shared" ref="D12:D13" si="1">MEDIAN(B12:C12)</f>
         <v>22.162447257383967</v>
       </c>
@@ -7008,15 +7069,15 @@
       <c r="A13" s="151" t="s">
         <v>458</v>
       </c>
-      <c r="B13" s="185">
+      <c r="B13" s="184">
         <f t="shared" si="0"/>
         <v>80.666666666666671</v>
       </c>
-      <c r="C13" s="185">
+      <c r="C13" s="184">
         <f t="shared" si="0"/>
         <v>41.724137931034484</v>
       </c>
-      <c r="D13" s="186">
+      <c r="D13" s="185">
         <f t="shared" si="1"/>
         <v>61.195402298850581</v>
       </c>
@@ -7031,7 +7092,7 @@
       <c r="C14" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="D14" s="184" t="s">
+      <c r="D14" s="183" t="s">
         <v>486</v>
       </c>
     </row>
@@ -7039,15 +7100,15 @@
       <c r="A15" s="151" t="s">
         <v>456</v>
       </c>
-      <c r="B15" s="189">
+      <c r="B15" s="188">
         <f>(1/B7)*$B$4</f>
         <v>1.776923076923077E-2</v>
       </c>
-      <c r="C15" s="189">
+      <c r="C15" s="188">
         <f>(1/C7)*$B$4</f>
         <v>1.1846153846153847E-2</v>
       </c>
-      <c r="D15" s="186">
+      <c r="D15" s="185">
         <f>MEDIAN(B15:C15)</f>
         <v>1.4807692307692308E-2</v>
       </c>
@@ -7056,15 +7117,15 @@
       <c r="A16" s="151" t="s">
         <v>457</v>
       </c>
-      <c r="B16" s="188">
+      <c r="B16" s="187">
         <f t="shared" ref="B16:C17" si="2">(1/B8)*$B$4</f>
         <v>0.154</v>
       </c>
-      <c r="C16" s="189">
+      <c r="C16" s="188">
         <f t="shared" si="2"/>
         <v>3.2164556962025317E-2</v>
       </c>
-      <c r="D16" s="186">
+      <c r="D16" s="185">
         <f t="shared" ref="D16:D17" si="3">MEDIAN(B16:C16)</f>
         <v>9.3082278481012665E-2</v>
       </c>
@@ -7073,15 +7134,15 @@
       <c r="A17" s="151" t="s">
         <v>458</v>
       </c>
-      <c r="B17" s="188">
+      <c r="B17" s="187">
         <f t="shared" si="2"/>
         <v>0.33879999999999999</v>
       </c>
-      <c r="C17" s="189">
+      <c r="C17" s="188">
         <f t="shared" si="2"/>
         <v>0.17524137931034481</v>
       </c>
-      <c r="D17" s="186">
+      <c r="D17" s="185">
         <f t="shared" si="3"/>
         <v>0.25702068965517239</v>
       </c>
@@ -7096,7 +7157,7 @@
       <c r="C18" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="D18" s="184" t="s">
+      <c r="D18" s="183" t="s">
         <v>487</v>
       </c>
     </row>
@@ -7104,13 +7165,13 @@
       <c r="A19" s="151" t="s">
         <v>456</v>
       </c>
-      <c r="B19" s="185">
+      <c r="B19" s="184">
         <v>0.76748251748251739</v>
       </c>
-      <c r="C19" s="185">
+      <c r="C19" s="184">
         <v>0.5116550116550117</v>
       </c>
-      <c r="D19" s="186">
+      <c r="D19" s="185">
         <f>MEDIAN(B19:C19)</f>
         <v>0.63956876456876455</v>
       </c>
@@ -7119,13 +7180,13 @@
       <c r="A20" s="151" t="s">
         <v>457</v>
       </c>
-      <c r="B20" s="185">
+      <c r="B20" s="184">
         <v>6.6515151515151514</v>
       </c>
-      <c r="C20" s="185">
+      <c r="C20" s="184">
         <v>1.389240506329114</v>
       </c>
-      <c r="D20" s="186">
+      <c r="D20" s="185">
         <f t="shared" ref="D20:D21" si="4">MEDIAN(B20:C20)</f>
         <v>4.0203778289221326</v>
       </c>
@@ -7134,385 +7195,385 @@
       <c r="A21" s="151" t="s">
         <v>458</v>
       </c>
-      <c r="B21" s="185">
+      <c r="B21" s="184">
         <v>14.633333333333333</v>
       </c>
-      <c r="C21" s="185">
+      <c r="C21" s="184">
         <v>7.5689655172413799</v>
       </c>
-      <c r="D21" s="186">
+      <c r="D21" s="185">
         <f t="shared" si="4"/>
         <v>11.101149425287357</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="179" t="s">
+      <c r="A22" s="178" t="s">
         <v>467</v>
       </c>
-      <c r="B22" s="180"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="181"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="180"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="190" t="s">
+      <c r="A23" s="189" t="s">
         <v>453</v>
       </c>
-      <c r="B23" s="185"/>
-      <c r="C23" s="185"/>
-      <c r="D23" s="187"/>
+      <c r="B23" s="184"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="186"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="151" t="s">
         <v>468</v>
       </c>
-      <c r="B24" s="185">
+      <c r="B24" s="184">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C24" s="185" t="s">
+      <c r="C24" s="184" t="s">
         <v>469</v>
       </c>
-      <c r="D24" s="187"/>
+      <c r="D24" s="186"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="151" t="s">
         <v>470</v>
       </c>
-      <c r="B25" s="185">
+      <c r="B25" s="184">
         <v>8.1</v>
       </c>
-      <c r="C25" s="185" t="s">
+      <c r="C25" s="184" t="s">
         <v>469</v>
       </c>
-      <c r="D25" s="187"/>
+      <c r="D25" s="186"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="151" t="s">
         <v>481</v>
       </c>
-      <c r="B26" s="185">
+      <c r="B26" s="184">
         <f>MEDIAN(B24:B25)</f>
         <v>8.6499999999999986</v>
       </c>
-      <c r="C26" s="185"/>
-      <c r="D26" s="187"/>
+      <c r="C26" s="184"/>
+      <c r="D26" s="186"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="190" t="s">
+      <c r="A27" s="189" t="s">
         <v>471</v>
       </c>
-      <c r="B27" s="188">
+      <c r="B27" s="187">
         <v>0.17</v>
       </c>
-      <c r="C27" s="185" t="s">
+      <c r="C27" s="184" t="s">
         <v>472</v>
       </c>
-      <c r="D27" s="187"/>
+      <c r="D27" s="186"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="190" t="s">
+      <c r="A28" s="189" t="s">
         <v>473</v>
       </c>
-      <c r="B28" s="185">
+      <c r="B28" s="184">
         <v>1430</v>
       </c>
-      <c r="C28" s="185" t="s">
+      <c r="C28" s="184" t="s">
         <v>450</v>
       </c>
-      <c r="D28" s="187"/>
+      <c r="D28" s="186"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="190" t="s">
+      <c r="A29" s="189" t="s">
         <v>473</v>
       </c>
-      <c r="B29" s="185">
+      <c r="B29" s="184">
         <f>B28*J3</f>
         <v>5.9831200000000004</v>
       </c>
-      <c r="C29" s="185" t="s">
+      <c r="C29" s="184" t="s">
         <v>451</v>
       </c>
-      <c r="D29" s="187"/>
+      <c r="D29" s="186"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="B30" s="185"/>
-      <c r="C30" s="185"/>
-      <c r="D30" s="187"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="186"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="B31" s="188">
+      <c r="B31" s="187">
         <f>(1/B25)*B29</f>
         <v>0.73865679012345686</v>
       </c>
-      <c r="C31" s="185" t="s">
+      <c r="C31" s="184" t="s">
         <v>475</v>
       </c>
-      <c r="D31" s="187"/>
+      <c r="D31" s="186"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="151" t="s">
         <v>476</v>
       </c>
-      <c r="B32" s="188">
+      <c r="B32" s="187">
         <f>(1/B24)*$B$29</f>
         <v>0.65033913043478275</v>
       </c>
-      <c r="C32" s="185" t="s">
+      <c r="C32" s="184" t="s">
         <v>475</v>
       </c>
-      <c r="D32" s="187"/>
+      <c r="D32" s="186"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="191" t="s">
+      <c r="A33" s="190" t="s">
         <v>481</v>
       </c>
-      <c r="B33" s="188">
+      <c r="B33" s="187">
         <f>(1/B26)*$B$29</f>
         <v>0.69169017341040484</v>
       </c>
-      <c r="C33" s="187" t="s">
+      <c r="C33" s="186" t="s">
         <v>475</v>
       </c>
-      <c r="D33" s="187"/>
+      <c r="D33" s="186"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="190" t="s">
+      <c r="A34" s="189" t="s">
         <v>464</v>
       </c>
-      <c r="B34" s="185"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="187"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="184"/>
+      <c r="D34" s="186"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="B35" s="185">
+      <c r="B35" s="184">
         <f>(1/B25)*$B$27*$J$2</f>
         <v>20.987654320987659</v>
       </c>
-      <c r="C35" s="185" t="s">
+      <c r="C35" s="184" t="s">
         <v>477</v>
       </c>
-      <c r="D35" s="187"/>
+      <c r="D35" s="186"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="151" t="s">
         <v>476</v>
       </c>
-      <c r="B36" s="185">
+      <c r="B36" s="184">
         <f>(1/B24)*$B$27*$J$2</f>
         <v>18.478260869565222</v>
       </c>
-      <c r="C36" s="185" t="s">
+      <c r="C36" s="184" t="s">
         <v>477</v>
       </c>
-      <c r="D36" s="187"/>
+      <c r="D36" s="186"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="191" t="s">
+      <c r="A37" s="190" t="s">
         <v>481</v>
       </c>
-      <c r="B37" s="185">
+      <c r="B37" s="184">
         <f>(1/B26)*$B$27*$J$2</f>
         <v>19.653179190751448</v>
       </c>
-      <c r="C37" s="187" t="s">
+      <c r="C37" s="186" t="s">
         <v>477</v>
       </c>
-      <c r="D37" s="187"/>
+      <c r="D37" s="186"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="179" t="s">
+      <c r="A38" s="178" t="s">
         <v>478</v>
       </c>
-      <c r="B38" s="180"/>
-      <c r="C38" s="180"/>
-      <c r="D38" s="181"/>
+      <c r="B38" s="179"/>
+      <c r="C38" s="179"/>
+      <c r="D38" s="180"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="190" t="s">
+      <c r="A39" s="189" t="s">
         <v>453</v>
       </c>
-      <c r="B39" s="185"/>
-      <c r="C39" s="185"/>
-      <c r="D39" s="187"/>
+      <c r="B39" s="184"/>
+      <c r="C39" s="184"/>
+      <c r="D39" s="186"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="151" t="s">
         <v>468</v>
       </c>
-      <c r="B40" s="185">
+      <c r="B40" s="184">
         <v>15</v>
       </c>
-      <c r="C40" s="185" t="s">
+      <c r="C40" s="184" t="s">
         <v>469</v>
       </c>
-      <c r="D40" s="187"/>
+      <c r="D40" s="186"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="151" t="s">
         <v>470</v>
       </c>
-      <c r="B41" s="185">
+      <c r="B41" s="184">
         <v>8</v>
       </c>
-      <c r="C41" s="185" t="s">
+      <c r="C41" s="184" t="s">
         <v>469</v>
       </c>
-      <c r="D41" s="187"/>
+      <c r="D41" s="186"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="151" t="s">
         <v>481</v>
       </c>
-      <c r="B42" s="185">
+      <c r="B42" s="184">
         <f>MEDIAN(B40:B41)</f>
         <v>11.5</v>
       </c>
-      <c r="C42" s="185" t="s">
+      <c r="C42" s="184" t="s">
         <v>469</v>
       </c>
-      <c r="D42" s="187"/>
+      <c r="D42" s="186"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="190" t="s">
+      <c r="A43" s="189" t="s">
         <v>479</v>
       </c>
-      <c r="B43" s="188">
+      <c r="B43" s="187">
         <v>0.17</v>
       </c>
-      <c r="C43" s="185" t="s">
+      <c r="C43" s="184" t="s">
         <v>472</v>
       </c>
-      <c r="D43" s="187"/>
+      <c r="D43" s="186"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="190" t="s">
+      <c r="A44" s="189" t="s">
         <v>480</v>
       </c>
-      <c r="B44" s="185">
+      <c r="B44" s="184">
         <v>2630</v>
       </c>
-      <c r="C44" s="185" t="s">
+      <c r="C44" s="184" t="s">
         <v>450</v>
       </c>
-      <c r="D44" s="187"/>
+      <c r="D44" s="186"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="190" t="s">
+      <c r="A45" s="189" t="s">
         <v>480</v>
       </c>
-      <c r="B45" s="185">
+      <c r="B45" s="184">
         <f>B44*J3</f>
         <v>11.003920000000001</v>
       </c>
-      <c r="C45" s="185" t="s">
+      <c r="C45" s="184" t="s">
         <v>451</v>
       </c>
-      <c r="D45" s="187"/>
+      <c r="D45" s="186"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="B46" s="185"/>
-      <c r="C46" s="185"/>
-      <c r="D46" s="187"/>
+      <c r="B46" s="184"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="186"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="151" t="s">
         <v>476</v>
       </c>
-      <c r="B47" s="186">
+      <c r="B47" s="185">
         <f t="shared" ref="B47:B48" si="5">(1/B40)*$B$45</f>
         <v>0.73359466666666673</v>
       </c>
-      <c r="C47" s="185" t="s">
+      <c r="C47" s="184" t="s">
         <v>475</v>
       </c>
-      <c r="D47" s="187"/>
+      <c r="D47" s="186"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="151" t="s">
         <v>484</v>
       </c>
-      <c r="B48" s="186">
+      <c r="B48" s="185">
         <f t="shared" si="5"/>
         <v>1.3754900000000001</v>
       </c>
-      <c r="C48" s="185" t="s">
+      <c r="C48" s="184" t="s">
         <v>475</v>
       </c>
-      <c r="D48" s="187"/>
+      <c r="D48" s="186"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="151" t="s">
         <v>481</v>
       </c>
-      <c r="B49" s="186">
+      <c r="B49" s="185">
         <f>(1/B42)*$B$45</f>
         <v>0.95686260869565221</v>
       </c>
-      <c r="C49" s="185" t="s">
+      <c r="C49" s="184" t="s">
         <v>475</v>
       </c>
-      <c r="D49" s="187"/>
+      <c r="D49" s="186"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="190" t="s">
+      <c r="A50" s="189" t="s">
         <v>464</v>
       </c>
-      <c r="B50" s="185"/>
-      <c r="C50" s="185"/>
-      <c r="D50" s="187"/>
+      <c r="B50" s="184"/>
+      <c r="C50" s="184"/>
+      <c r="D50" s="186"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="151" t="s">
         <v>476</v>
       </c>
-      <c r="B51" s="187">
+      <c r="B51" s="186">
         <f>(1/B40)*$B$43*$J$2</f>
         <v>11.333333333333334</v>
       </c>
-      <c r="C51" s="185" t="s">
+      <c r="C51" s="184" t="s">
         <v>477</v>
       </c>
-      <c r="D51" s="187"/>
+      <c r="D51" s="186"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="151" t="s">
         <v>484</v>
       </c>
-      <c r="B52" s="187">
+      <c r="B52" s="186">
         <f>(1/B41)*$B$43*$J$2</f>
         <v>21.25</v>
       </c>
-      <c r="C52" s="185" t="s">
+      <c r="C52" s="184" t="s">
         <v>477</v>
       </c>
-      <c r="D52" s="187"/>
+      <c r="D52" s="186"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="151" t="s">
         <v>481</v>
       </c>
-      <c r="B53" s="187">
+      <c r="B53" s="186">
         <f>(1/B42)*$B$43*$J$2</f>
         <v>14.782608695652174</v>
       </c>
-      <c r="C53" s="185" t="s">
+      <c r="C53" s="184" t="s">
         <v>477</v>
       </c>
-      <c r="D53" s="187"/>
+      <c r="D53" s="186"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="192"/>
+      <c r="B54" s="191"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7522,10 +7583,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:C42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7535,683 +7596,745 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="193" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="194">
+      <c r="B1" s="193">
         <v>20</v>
       </c>
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="193" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="193" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="194">
+      <c r="B2" s="193">
         <v>482</v>
       </c>
-      <c r="C2" s="194" t="s">
+      <c r="C2" s="193" t="s">
         <v>330</v>
       </c>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194" t="s">
+      <c r="D2" s="193"/>
+      <c r="E2" s="193" t="s">
         <v>335</v>
       </c>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="193" t="s">
         <v>334</v>
       </c>
-      <c r="B3" s="194">
+      <c r="B3" s="193">
         <v>1849</v>
       </c>
-      <c r="C3" s="194" t="s">
+      <c r="C3" s="193" t="s">
         <v>330</v>
       </c>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194" t="s">
+      <c r="D3" s="193"/>
+      <c r="E3" s="193" t="s">
         <v>335</v>
       </c>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="192" t="s">
         <v>488</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="194"/>
-      <c r="H4" s="194"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="193" t="s">
         <v>336</v>
       </c>
-      <c r="B5" s="194">
+      <c r="B5" s="193">
         <f>B2/B1</f>
         <v>24.1</v>
       </c>
-      <c r="C5" s="194" t="s">
+      <c r="C5" s="193" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="193"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="193" t="s">
         <v>337</v>
       </c>
-      <c r="B6" s="194">
+      <c r="B6" s="193">
         <f>B3/B1</f>
         <v>92.45</v>
       </c>
-      <c r="C6" s="194" t="s">
+      <c r="C6" s="193" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="194"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="193"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="194"/>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="194"/>
+      <c r="A7" s="193"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="193" t="s">
         <v>327</v>
       </c>
-      <c r="B8" s="194">
+      <c r="B8" s="193">
         <v>3000</v>
       </c>
-      <c r="C8" s="194" t="s">
+      <c r="C8" s="193" t="s">
         <v>328</v>
       </c>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="194"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="193"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="194"/>
-      <c r="B9" s="194">
+      <c r="A9" s="193"/>
+      <c r="B9" s="193">
         <f>0.000000000001</f>
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="C9" s="194" t="s">
+      <c r="C9" s="193" t="s">
         <v>338</v>
       </c>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="194"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="194"/>
-      <c r="B10" s="194">
+      <c r="A10" s="193"/>
+      <c r="B10" s="193">
         <f>B8*B9</f>
         <v>3E-9</v>
       </c>
-      <c r="C10" s="194" t="s">
+      <c r="C10" s="193" t="s">
         <v>329</v>
       </c>
-      <c r="D10" s="194"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="194"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="194"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="194"/>
-      <c r="B11" s="194">
+      <c r="A11" s="193"/>
+      <c r="B11" s="193">
         <v>1000</v>
       </c>
-      <c r="C11" s="194" t="s">
+      <c r="C11" s="193" t="s">
         <v>339</v>
       </c>
-      <c r="D11" s="194"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="194"/>
-      <c r="G11" s="194"/>
-      <c r="H11" s="194"/>
+      <c r="D11" s="193"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="193"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="194"/>
-      <c r="B12" s="194">
+      <c r="A12" s="193"/>
+      <c r="B12" s="193">
         <f>B10/B11</f>
         <v>3.0000000000000001E-12</v>
       </c>
-      <c r="C12" s="194" t="s">
+      <c r="C12" s="193" t="s">
         <v>330</v>
       </c>
-      <c r="D12" s="194"/>
-      <c r="E12" s="194"/>
-      <c r="F12" s="194"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="194"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="194"/>
-      <c r="B13" s="194"/>
-      <c r="C13" s="194"/>
-      <c r="D13" s="194"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="194"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="194"/>
+      <c r="A13" s="193"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="193"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="194" t="s">
+      <c r="A14" s="193" t="s">
         <v>336</v>
       </c>
-      <c r="B14" s="194">
+      <c r="B14" s="193">
         <f>B5/B12</f>
         <v>8033333333333.333</v>
       </c>
-      <c r="C14" s="194" t="s">
+      <c r="C14" s="193" t="s">
         <v>331</v>
       </c>
-      <c r="D14" s="194"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="194"/>
-      <c r="B15" s="195">
+      <c r="A15" s="193"/>
+      <c r="B15" s="194">
         <v>1000000</v>
       </c>
-      <c r="C15" s="194" t="s">
+      <c r="C15" s="193" t="s">
         <v>340</v>
       </c>
-      <c r="D15" s="194"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="194"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="194" t="s">
+      <c r="A16" s="193" t="s">
         <v>336</v>
       </c>
-      <c r="B16" s="196">
+      <c r="B16" s="195">
         <f>B14/B15</f>
         <v>8033333.333333333</v>
       </c>
-      <c r="C16" s="194" t="s">
+      <c r="C16" s="193" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="194"/>
-      <c r="B17" s="194"/>
-      <c r="C17" s="194"/>
-      <c r="D17" s="194"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="194"/>
+      <c r="A17" s="193"/>
+      <c r="B17" s="193"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="194" t="s">
+      <c r="A18" s="193" t="s">
         <v>337</v>
       </c>
-      <c r="B18" s="194">
+      <c r="B18" s="193">
         <f>B6/B12</f>
         <v>30816666666666.668</v>
       </c>
-      <c r="C18" s="194" t="s">
+      <c r="C18" s="193" t="s">
         <v>331</v>
       </c>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="194"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="194" t="s">
+      <c r="A19" s="193" t="s">
         <v>337</v>
       </c>
-      <c r="B19" s="196">
+      <c r="B19" s="195">
         <f>B18/B15</f>
         <v>30816666.666666668</v>
       </c>
-      <c r="C19" s="194" t="s">
+      <c r="C19" s="193" t="s">
         <v>340</v>
       </c>
-      <c r="D19" s="194"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="194"/>
-      <c r="G19" s="194"/>
-      <c r="H19" s="194"/>
+      <c r="D19" s="193"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="193"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="193"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="200" t="s">
+      <c r="A21" s="199" t="s">
         <v>489</v>
       </c>
-      <c r="B21" s="197"/>
-      <c r="C21" s="197"/>
-      <c r="D21" s="197"/>
-      <c r="E21" s="197"/>
-      <c r="F21" s="197"/>
-      <c r="G21" s="197"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="197"/>
-      <c r="J21" s="197"/>
+      <c r="B21" s="196"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="196"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="198" t="s">
+      <c r="A22" s="197" t="s">
         <v>490</v>
       </c>
-      <c r="B22" s="197">
+      <c r="B22" s="196">
         <v>20</v>
       </c>
-      <c r="C22" s="197" t="s">
+      <c r="C22" s="196" t="s">
         <v>160</v>
       </c>
-      <c r="D22" s="197"/>
-      <c r="E22" s="197"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="197"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="197"/>
-      <c r="J22" s="197"/>
+      <c r="D22" s="196"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="196"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="196"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="198" t="s">
+      <c r="A23" s="197" t="s">
         <v>492</v>
       </c>
-      <c r="B23" s="197"/>
-      <c r="C23" s="197"/>
-      <c r="D23" s="197"/>
-      <c r="E23" s="197"/>
-      <c r="F23" s="197"/>
-      <c r="G23" s="197"/>
-      <c r="H23" s="197"/>
-      <c r="I23" s="197"/>
-      <c r="J23" s="197"/>
+      <c r="B23" s="196"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="196"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="196"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="198">
+      <c r="A24" s="197">
         <v>1</v>
       </c>
-      <c r="B24" s="199">
+      <c r="B24" s="198">
         <v>10000000</v>
       </c>
-      <c r="C24" s="197" t="s">
+      <c r="C24" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="D24" s="197"/>
-      <c r="E24" s="197"/>
-      <c r="F24" s="197"/>
-      <c r="G24" s="197"/>
-      <c r="H24" s="197"/>
-      <c r="I24" s="197"/>
-      <c r="J24" s="197"/>
+      <c r="D24" s="196"/>
+      <c r="E24" s="196"/>
+      <c r="F24" s="196"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="196"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="196"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="198">
+      <c r="A25" s="197">
         <v>2</v>
       </c>
-      <c r="B25" s="199">
+      <c r="B25" s="198">
         <v>95000000</v>
       </c>
-      <c r="C25" s="197" t="s">
+      <c r="C25" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="D25" s="197"/>
-      <c r="E25" s="197"/>
-      <c r="F25" s="197"/>
-      <c r="G25" s="197"/>
-      <c r="H25" s="197"/>
-      <c r="I25" s="197"/>
-      <c r="J25" s="197"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="196"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="196"/>
+      <c r="I25" s="196"/>
+      <c r="J25" s="196"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="198">
+      <c r="A26" s="197">
         <v>3</v>
       </c>
-      <c r="B26" s="199">
+      <c r="B26" s="198">
         <v>95000000</v>
       </c>
-      <c r="C26" s="197" t="s">
+      <c r="C26" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="D26" s="197"/>
-      <c r="E26" s="197"/>
-      <c r="F26" s="197"/>
-      <c r="G26" s="197"/>
-      <c r="H26" s="197"/>
-      <c r="I26" s="197"/>
-      <c r="J26" s="197"/>
+      <c r="D26" s="196"/>
+      <c r="E26" s="196"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="196"/>
+      <c r="I26" s="196"/>
+      <c r="J26" s="196"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="198">
+      <c r="A27" s="197">
         <v>4</v>
       </c>
-      <c r="B27" s="199">
+      <c r="B27" s="198">
         <v>200000000</v>
       </c>
-      <c r="C27" s="197" t="s">
+      <c r="C27" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="D27" s="197"/>
-      <c r="E27" s="197"/>
-      <c r="F27" s="197"/>
-      <c r="G27" s="197"/>
-      <c r="H27" s="197"/>
-      <c r="I27" s="197"/>
-      <c r="J27" s="197"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="196"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="196"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="198" t="s">
+      <c r="A28" s="197" t="s">
         <v>491</v>
       </c>
-      <c r="B28" s="199">
+      <c r="B28" s="198">
         <v>200</v>
       </c>
-      <c r="C28" s="197" t="s">
+      <c r="C28" s="196" t="s">
         <v>493</v>
       </c>
-      <c r="D28" s="197"/>
-      <c r="E28" s="197"/>
-      <c r="F28" s="197"/>
-      <c r="G28" s="197"/>
-      <c r="H28" s="197"/>
-      <c r="I28" s="197"/>
-      <c r="J28" s="197"/>
+      <c r="D28" s="196"/>
+      <c r="E28" s="196"/>
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="196"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="196"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="198" t="s">
+      <c r="A29" s="197" t="s">
         <v>495</v>
       </c>
-      <c r="B29" s="197"/>
-      <c r="C29" s="197"/>
-      <c r="D29" s="197"/>
-      <c r="E29" s="197"/>
-      <c r="F29" s="197"/>
-      <c r="G29" s="197"/>
-      <c r="H29" s="197"/>
-      <c r="I29" s="197"/>
-      <c r="J29" s="197"/>
+      <c r="B29" s="196"/>
+      <c r="C29" s="196"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="196"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="198">
+      <c r="A30" s="197">
         <v>1</v>
       </c>
-      <c r="B30" s="199">
+      <c r="B30" s="198">
         <f>(B24*$B$28*1000)/($B$22*1000000)</f>
         <v>100000</v>
       </c>
-      <c r="C30" s="197" t="s">
+      <c r="C30" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="D30" s="197"/>
-      <c r="E30" s="197"/>
-      <c r="F30" s="197"/>
-      <c r="G30" s="197"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="197"/>
-      <c r="J30" s="197"/>
+      <c r="D30" s="196"/>
+      <c r="E30" s="196"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="196"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="196"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="198">
+      <c r="A31" s="197">
         <v>2</v>
       </c>
-      <c r="B31" s="199">
+      <c r="B31" s="198">
         <f t="shared" ref="B31:B33" si="0">(B25*$B$28*1000)/($B$22*1000000)</f>
         <v>950000</v>
       </c>
-      <c r="C31" s="197"/>
-      <c r="D31" s="197"/>
-      <c r="E31" s="197"/>
-      <c r="F31" s="197"/>
-      <c r="G31" s="197"/>
-      <c r="H31" s="197"/>
-      <c r="I31" s="197"/>
-      <c r="J31" s="197"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="196"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="198">
+      <c r="A32" s="197">
         <v>3</v>
       </c>
-      <c r="B32" s="199">
+      <c r="B32" s="198">
         <f t="shared" si="0"/>
         <v>950000</v>
       </c>
-      <c r="C32" s="197"/>
-      <c r="D32" s="197"/>
-      <c r="E32" s="197"/>
-      <c r="F32" s="197"/>
-      <c r="G32" s="197"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="197"/>
-      <c r="J32" s="197"/>
+      <c r="C32" s="196"/>
+      <c r="D32" s="196"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="196"/>
+      <c r="G32" s="196"/>
+      <c r="H32" s="196"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="196"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="198">
+      <c r="A33" s="197">
         <v>4</v>
       </c>
-      <c r="B33" s="199">
+      <c r="B33" s="198">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="C33" s="197"/>
-      <c r="D33" s="197"/>
-      <c r="E33" s="197"/>
-      <c r="F33" s="197"/>
-      <c r="G33" s="197"/>
-      <c r="H33" s="197"/>
-      <c r="I33" s="197"/>
-      <c r="J33" s="197"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="196"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="197" t="s">
+      <c r="A34" s="196" t="s">
         <v>496</v>
       </c>
-      <c r="B34" s="197"/>
-      <c r="C34" s="197"/>
-      <c r="D34" s="197"/>
-      <c r="E34" s="197"/>
-      <c r="F34" s="197"/>
-      <c r="G34" s="197"/>
-      <c r="H34" s="197"/>
-      <c r="I34" s="197"/>
-      <c r="J34" s="197"/>
+      <c r="B34" s="196"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="196"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="196"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="198" t="s">
+      <c r="A35" s="197" t="s">
         <v>497</v>
       </c>
-      <c r="B35" s="197">
+      <c r="B35" s="196">
         <v>24</v>
       </c>
-      <c r="C35" s="197" t="s">
+      <c r="C35" s="196" t="s">
         <v>505</v>
       </c>
-      <c r="D35" s="197"/>
-      <c r="E35" s="197"/>
-      <c r="F35" s="197"/>
-      <c r="G35" s="197"/>
-      <c r="H35" s="197"/>
-      <c r="I35" s="197"/>
-      <c r="J35" s="197"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="196"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="198" t="s">
+      <c r="A36" s="197" t="s">
         <v>498</v>
       </c>
-      <c r="B36" s="197">
+      <c r="B36" s="196">
         <v>16</v>
       </c>
-      <c r="C36" s="197" t="s">
+      <c r="C36" s="196" t="s">
         <v>505</v>
       </c>
-      <c r="D36" s="197"/>
-      <c r="E36" s="197"/>
-      <c r="F36" s="197"/>
-      <c r="G36" s="197"/>
-      <c r="H36" s="197"/>
-      <c r="I36" s="197"/>
-      <c r="J36" s="197"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="196"/>
+      <c r="F36" s="196"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="196"/>
+      <c r="I36" s="196"/>
+      <c r="J36" s="196"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="198" t="s">
+      <c r="A37" s="197" t="s">
         <v>499</v>
       </c>
-      <c r="B37" s="197">
+      <c r="B37" s="196">
         <v>16</v>
       </c>
-      <c r="C37" s="197" t="s">
+      <c r="C37" s="196" t="s">
         <v>505</v>
       </c>
-      <c r="D37" s="197"/>
-      <c r="E37" s="197"/>
-      <c r="F37" s="197"/>
-      <c r="G37" s="197"/>
-      <c r="H37" s="197"/>
-      <c r="I37" s="197"/>
-      <c r="J37" s="197"/>
+      <c r="D37" s="196"/>
+      <c r="E37" s="196"/>
+      <c r="F37" s="196"/>
+      <c r="G37" s="196"/>
+      <c r="H37" s="196"/>
+      <c r="I37" s="196"/>
+      <c r="J37" s="196"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="198" t="s">
+      <c r="A38" s="197" t="s">
         <v>500</v>
       </c>
-      <c r="B38" s="197">
+      <c r="B38" s="196">
         <v>8</v>
       </c>
-      <c r="C38" s="197" t="s">
+      <c r="C38" s="196" t="s">
         <v>505</v>
       </c>
-      <c r="D38" s="197"/>
-      <c r="E38" s="197"/>
-      <c r="F38" s="197"/>
-      <c r="G38" s="197"/>
-      <c r="H38" s="197"/>
-      <c r="I38" s="197"/>
-      <c r="J38" s="197"/>
+      <c r="D38" s="196"/>
+      <c r="E38" s="196"/>
+      <c r="F38" s="196"/>
+      <c r="G38" s="196"/>
+      <c r="H38" s="196"/>
+      <c r="I38" s="196"/>
+      <c r="J38" s="196"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="198" t="s">
+      <c r="A39" s="197" t="s">
         <v>501</v>
       </c>
-      <c r="B39" s="201">
+      <c r="B39" s="200">
         <f>(B35*LN(B24/B30))/LN(2)</f>
         <v>159.45254855459342</v>
       </c>
-      <c r="C39" s="197" t="s">
+      <c r="C39" s="196" t="s">
         <v>505</v>
       </c>
-      <c r="D39" s="197"/>
-      <c r="E39" s="197"/>
-      <c r="F39" s="197"/>
-      <c r="G39" s="197"/>
-      <c r="H39" s="197"/>
-      <c r="I39" s="197"/>
-      <c r="J39" s="197"/>
+      <c r="D39" s="196"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="196"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="196"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="196"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="198" t="s">
+      <c r="A40" s="197" t="s">
         <v>502</v>
       </c>
-      <c r="B40" s="201">
+      <c r="B40" s="200">
         <f t="shared" ref="B40:B42" si="1">(B36*LN(B25/B31))/LN(2)</f>
         <v>106.3016990363956</v>
       </c>
-      <c r="C40" s="197" t="s">
+      <c r="C40" s="196" t="s">
         <v>505</v>
       </c>
-      <c r="D40" s="197"/>
-      <c r="E40" s="197"/>
-      <c r="F40" s="197"/>
-      <c r="G40" s="197"/>
-      <c r="H40" s="197"/>
-      <c r="I40" s="197"/>
-      <c r="J40" s="197"/>
+      <c r="D40" s="196"/>
+      <c r="E40" s="196"/>
+      <c r="F40" s="196"/>
+      <c r="G40" s="196"/>
+      <c r="H40" s="196"/>
+      <c r="I40" s="196"/>
+      <c r="J40" s="196"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="198" t="s">
+      <c r="A41" s="197" t="s">
         <v>503</v>
       </c>
-      <c r="B41" s="201">
+      <c r="B41" s="200">
         <f t="shared" si="1"/>
         <v>106.3016990363956</v>
       </c>
-      <c r="C41" s="197" t="s">
+      <c r="C41" s="196" t="s">
         <v>505</v>
       </c>
-      <c r="D41" s="197"/>
-      <c r="E41" s="197"/>
-      <c r="F41" s="197"/>
-      <c r="G41" s="197"/>
-      <c r="H41" s="197"/>
-      <c r="I41" s="197"/>
-      <c r="J41" s="197"/>
+      <c r="D41" s="196"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="196"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="196"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="196"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="197" t="s">
         <v>504</v>
       </c>
-      <c r="B42" s="201">
+      <c r="B42" s="200">
         <f t="shared" si="1"/>
         <v>53.150849518197802</v>
       </c>
-      <c r="C42" s="197" t="s">
+      <c r="C42" s="196" t="s">
         <v>505</v>
       </c>
-      <c r="D42" s="197"/>
-      <c r="E42" s="197"/>
-      <c r="F42" s="197"/>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
-      <c r="J42" s="197"/>
+      <c r="D42" s="196"/>
+      <c r="E42" s="196"/>
+      <c r="F42" s="196"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="196"/>
+      <c r="I42" s="196"/>
+      <c r="J42" s="196"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="197"/>
-      <c r="B43" s="197"/>
-      <c r="C43" s="197"/>
-      <c r="D43" s="197"/>
-      <c r="E43" s="197"/>
-      <c r="F43" s="197"/>
-      <c r="G43" s="197"/>
-      <c r="H43" s="197"/>
-      <c r="I43" s="197"/>
-      <c r="J43" s="197"/>
+      <c r="A43" s="196"/>
+      <c r="B43" s="196"/>
+      <c r="C43" s="196"/>
+      <c r="D43" s="196"/>
+      <c r="E43" s="196"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="196"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>506</v>
+      </c>
+      <c r="B47" s="42">
+        <v>40000000</v>
+      </c>
+      <c r="C47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>507</v>
+      </c>
+      <c r="B48">
+        <v>3524</v>
+      </c>
+      <c r="C48" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>508</v>
+      </c>
+      <c r="B49" s="42">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>509</v>
+      </c>
+      <c r="B50" s="42">
+        <f>B49*B47</f>
+        <v>800000000000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="42">
+        <f>B48/B50</f>
+        <v>4.4049999999999999E-12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="42">
+        <f>B51*1000</f>
+        <v>4.4049999999999996E-9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>511</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8379,24 +8502,24 @@
       <c r="D11" s="37"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="173" t="s">
+      <c r="A16" s="172" t="s">
         <v>443</v>
       </c>
       <c r="B16" s="99"/>
-      <c r="C16" s="174"/>
+      <c r="C16" s="173"/>
       <c r="D16" s="98"/>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="175" t="s">
+      <c r="A17" s="174" t="s">
         <v>442</v>
       </c>
-      <c r="B17" s="176">
+      <c r="B17" s="175">
         <v>5.5</v>
       </c>
-      <c r="C17" s="177" t="s">
+      <c r="C17" s="176" t="s">
         <v>444</v>
       </c>
-      <c r="D17" s="178" t="s">
+      <c r="D17" s="177" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8469,24 +8592,24 @@
       <c r="D22" s="37"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="173" t="s">
+      <c r="A25" s="172" t="s">
         <v>446</v>
       </c>
       <c r="B25" s="99"/>
-      <c r="C25" s="174"/>
+      <c r="C25" s="173"/>
       <c r="D25" s="98"/>
     </row>
     <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="175" t="s">
+      <c r="A26" s="174" t="s">
         <v>448</v>
       </c>
-      <c r="B26" s="176">
+      <c r="B26" s="175">
         <v>1.8</v>
       </c>
-      <c r="C26" s="177" t="s">
+      <c r="C26" s="176" t="s">
         <v>444</v>
       </c>
-      <c r="D26" s="178" t="s">
+      <c r="D26" s="177" t="s">
         <v>447</v>
       </c>
     </row>
